--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gnai2-Ccr5.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gnai2-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H2">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I2">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J2">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>48.4575390136119</v>
+        <v>0.03930266666666667</v>
       </c>
       <c r="N2">
-        <v>48.4575390136119</v>
+        <v>0.117908</v>
       </c>
       <c r="O2">
-        <v>0.4047526830301316</v>
+        <v>0.0002899299635503584</v>
       </c>
       <c r="P2">
-        <v>0.4047526830301316</v>
+        <v>0.0002899299635503584</v>
       </c>
       <c r="Q2">
-        <v>3753.677505137084</v>
+        <v>4.200613583472444</v>
       </c>
       <c r="R2">
-        <v>3753.677505137084</v>
+        <v>37.805522251252</v>
       </c>
       <c r="S2">
-        <v>0.04803090436394761</v>
+        <v>4.374313404665913E-05</v>
       </c>
       <c r="T2">
-        <v>0.04803090436394761</v>
+        <v>4.374313404665913E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H3">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I3">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J3">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>61.1483113516776</v>
+        <v>60.87605266666667</v>
       </c>
       <c r="N3">
-        <v>61.1483113516776</v>
+        <v>182.628158</v>
       </c>
       <c r="O3">
-        <v>0.510755262981907</v>
+        <v>0.4490736437918471</v>
       </c>
       <c r="P3">
-        <v>0.510755262981907</v>
+        <v>0.4490736437918471</v>
       </c>
       <c r="Q3">
-        <v>4736.745725643118</v>
+        <v>6506.346653487056</v>
       </c>
       <c r="R3">
-        <v>4736.745725643118</v>
+        <v>58557.1198813835</v>
       </c>
       <c r="S3">
-        <v>0.06060994335111204</v>
+        <v>0.06775390979482684</v>
       </c>
       <c r="T3">
-        <v>0.06060994335111204</v>
+        <v>0.06775390979482683</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H4">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I4">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J4">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.1155030568557</v>
+        <v>63.712864</v>
       </c>
       <c r="N4">
-        <v>10.1155030568557</v>
+        <v>191.138592</v>
       </c>
       <c r="O4">
-        <v>0.08449205398796139</v>
+        <v>0.470000381752102</v>
       </c>
       <c r="P4">
-        <v>0.08449205398796139</v>
+        <v>0.470000381752102</v>
       </c>
       <c r="Q4">
-        <v>783.5795430510542</v>
+        <v>6809.541047944138</v>
       </c>
       <c r="R4">
-        <v>783.5795430510542</v>
+        <v>61285.86943149725</v>
       </c>
       <c r="S4">
-        <v>0.01002644314604125</v>
+        <v>0.07091122783310452</v>
       </c>
       <c r="T4">
-        <v>0.01002644314604125</v>
+        <v>0.07091122783310452</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>76.9701855606306</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H5">
-        <v>76.9701855606306</v>
+        <v>320.635769</v>
       </c>
       <c r="I5">
-        <v>0.1179119868916763</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J5">
-        <v>0.1179119868916763</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>48.4575390136119</v>
+        <v>10.93095566666667</v>
       </c>
       <c r="N5">
-        <v>48.4575390136119</v>
+        <v>32.792867</v>
       </c>
       <c r="O5">
-        <v>0.4047526830301316</v>
+        <v>0.08063604449250054</v>
       </c>
       <c r="P5">
-        <v>0.4047526830301316</v>
+        <v>0.08063604449250053</v>
       </c>
       <c r="Q5">
-        <v>3729.785769689204</v>
+        <v>1168.285125362191</v>
       </c>
       <c r="R5">
-        <v>3729.785769689204</v>
+        <v>10514.56612825972</v>
       </c>
       <c r="S5">
-        <v>0.04772519305581969</v>
+        <v>0.0121659495280665</v>
       </c>
       <c r="T5">
-        <v>0.04772519305581969</v>
+        <v>0.0121659495280665</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H6">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I6">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J6">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>61.1483113516776</v>
+        <v>0.03930266666666667</v>
       </c>
       <c r="N6">
-        <v>61.1483113516776</v>
+        <v>0.117908</v>
       </c>
       <c r="O6">
-        <v>0.510755262981907</v>
+        <v>0.0002899299635503584</v>
       </c>
       <c r="P6">
-        <v>0.510755262981907</v>
+        <v>0.0002899299635503584</v>
       </c>
       <c r="Q6">
-        <v>4706.596871457839</v>
+        <v>3.035459828361333</v>
       </c>
       <c r="R6">
-        <v>4706.596871457839</v>
+        <v>27.319138455252</v>
       </c>
       <c r="S6">
-        <v>0.06022416787357729</v>
+        <v>3.160979307587142E-05</v>
       </c>
       <c r="T6">
-        <v>0.06022416787357729</v>
+        <v>3.160979307587143E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H7">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I7">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J7">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.1155030568557</v>
+        <v>60.87605266666667</v>
       </c>
       <c r="N7">
-        <v>10.1155030568557</v>
+        <v>182.628158</v>
       </c>
       <c r="O7">
-        <v>0.08449205398796139</v>
+        <v>0.4490736437918471</v>
       </c>
       <c r="P7">
-        <v>0.08449205398796139</v>
+        <v>0.4490736437918471</v>
       </c>
       <c r="Q7">
-        <v>778.5921473253092</v>
+        <v>4701.635488148612</v>
       </c>
       <c r="R7">
-        <v>778.5921473253092</v>
+        <v>42314.7193933375</v>
       </c>
       <c r="S7">
-        <v>0.009962625962279309</v>
+        <v>0.04896053095809914</v>
       </c>
       <c r="T7">
-        <v>0.009962625962279309</v>
+        <v>0.04896053095809914</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>121.711490137238</v>
+        <v>77.232923</v>
       </c>
       <c r="H8">
-        <v>121.711490137238</v>
+        <v>231.698769</v>
       </c>
       <c r="I8">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J8">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>48.4575390136119</v>
+        <v>63.712864</v>
       </c>
       <c r="N8">
-        <v>48.4575390136119</v>
+        <v>191.138592</v>
       </c>
       <c r="O8">
-        <v>0.4047526830301316</v>
+        <v>0.470000381752102</v>
       </c>
       <c r="P8">
-        <v>0.4047526830301316</v>
+        <v>0.470000381752102</v>
       </c>
       <c r="Q8">
-        <v>5897.83928173005</v>
+        <v>4920.730719421472</v>
       </c>
       <c r="R8">
-        <v>5897.83928173005</v>
+        <v>44286.57647479325</v>
       </c>
       <c r="S8">
-        <v>0.07546693984952876</v>
+        <v>0.05124208146973414</v>
       </c>
       <c r="T8">
-        <v>0.07546693984952876</v>
+        <v>0.05124208146973415</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>121.711490137238</v>
+        <v>77.232923</v>
       </c>
       <c r="H9">
-        <v>121.711490137238</v>
+        <v>231.698769</v>
       </c>
       <c r="I9">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J9">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>61.1483113516776</v>
+        <v>10.93095566666667</v>
       </c>
       <c r="N9">
-        <v>61.1483113516776</v>
+        <v>32.792867</v>
       </c>
       <c r="O9">
-        <v>0.510755262981907</v>
+        <v>0.08063604449250054</v>
       </c>
       <c r="P9">
-        <v>0.510755262981907</v>
+        <v>0.08063604449250053</v>
       </c>
       <c r="Q9">
-        <v>7442.452093988467</v>
+        <v>844.2296573200804</v>
       </c>
       <c r="R9">
-        <v>7442.452093988467</v>
+        <v>7598.066915880723</v>
       </c>
       <c r="S9">
-        <v>0.09523133094689418</v>
+        <v>0.008791394479039358</v>
       </c>
       <c r="T9">
-        <v>0.09523133094689418</v>
+        <v>0.008791394479039358</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>121.711490137238</v>
+        <v>136.676337</v>
       </c>
       <c r="H10">
-        <v>121.711490137238</v>
+        <v>410.029011</v>
       </c>
       <c r="I10">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J10">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>10.1155030568557</v>
+        <v>0.03930266666666667</v>
       </c>
       <c r="N10">
-        <v>10.1155030568557</v>
+        <v>0.117908</v>
       </c>
       <c r="O10">
-        <v>0.08449205398796139</v>
+        <v>0.0002899299635503584</v>
       </c>
       <c r="P10">
-        <v>0.08449205398796139</v>
+        <v>0.0002899299635503584</v>
       </c>
       <c r="Q10">
-        <v>1231.172950537693</v>
+        <v>5.371744514332001</v>
       </c>
       <c r="R10">
-        <v>1231.172950537693</v>
+        <v>48.34570062898801</v>
       </c>
       <c r="S10">
-        <v>0.01575371090399402</v>
+        <v>5.593871840041674E-05</v>
       </c>
       <c r="T10">
-        <v>0.01575371090399402</v>
+        <v>5.593871840041674E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>140.36676684056</v>
+        <v>136.676337</v>
       </c>
       <c r="H11">
-        <v>140.36676684056</v>
+        <v>410.029011</v>
       </c>
       <c r="I11">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J11">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>48.4575390136119</v>
+        <v>60.87605266666667</v>
       </c>
       <c r="N11">
-        <v>48.4575390136119</v>
+        <v>182.628158</v>
       </c>
       <c r="O11">
-        <v>0.4047526830301316</v>
+        <v>0.4490736437918471</v>
       </c>
       <c r="P11">
-        <v>0.4047526830301316</v>
+        <v>0.4490736437918471</v>
       </c>
       <c r="Q11">
-        <v>6801.828080391001</v>
+        <v>8320.315889499085</v>
       </c>
       <c r="R11">
-        <v>6801.828080391001</v>
+        <v>74882.84300549176</v>
       </c>
       <c r="S11">
-        <v>0.08703410284505583</v>
+        <v>0.0866436976485804</v>
       </c>
       <c r="T11">
-        <v>0.08703410284505583</v>
+        <v>0.08664369764858039</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>140.36676684056</v>
+        <v>136.676337</v>
       </c>
       <c r="H12">
-        <v>140.36676684056</v>
+        <v>410.029011</v>
       </c>
       <c r="I12">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J12">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.1483113516776</v>
+        <v>63.712864</v>
       </c>
       <c r="N12">
-        <v>61.1483113516776</v>
+        <v>191.138592</v>
       </c>
       <c r="O12">
-        <v>0.510755262981907</v>
+        <v>0.470000381752102</v>
       </c>
       <c r="P12">
-        <v>0.510755262981907</v>
+        <v>0.470000381752102</v>
       </c>
       <c r="Q12">
-        <v>8583.190762194898</v>
+        <v>8708.04087129917</v>
       </c>
       <c r="R12">
-        <v>8583.190762194898</v>
+        <v>78372.36784169252</v>
       </c>
       <c r="S12">
-        <v>0.1098278725522655</v>
+        <v>0.0906812758535481</v>
       </c>
       <c r="T12">
-        <v>0.1098278725522655</v>
+        <v>0.0906812758535481</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>140.36676684056</v>
+        <v>136.676337</v>
       </c>
       <c r="H13">
-        <v>140.36676684056</v>
+        <v>410.029011</v>
       </c>
       <c r="I13">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J13">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.1155030568557</v>
+        <v>10.93095566666667</v>
       </c>
       <c r="N13">
-        <v>10.1155030568557</v>
+        <v>32.792867</v>
       </c>
       <c r="O13">
-        <v>0.08449205398796139</v>
+        <v>0.08063604449250054</v>
       </c>
       <c r="P13">
-        <v>0.08449205398796139</v>
+        <v>0.08063604449250053</v>
       </c>
       <c r="Q13">
-        <v>1419.880459056636</v>
+        <v>1494.002980429393</v>
       </c>
       <c r="R13">
-        <v>1419.880459056636</v>
+        <v>13446.02682386454</v>
       </c>
       <c r="S13">
-        <v>0.01816835421899056</v>
+        <v>0.01555781586198833</v>
       </c>
       <c r="T13">
-        <v>0.01816835421899056</v>
+        <v>0.01555781586198832</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>194.159493575321</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H14">
-        <v>194.159493575321</v>
+        <v>430.367156</v>
       </c>
       <c r="I14">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J14">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>48.4575390136119</v>
+        <v>0.03930266666666667</v>
       </c>
       <c r="N14">
-        <v>48.4575390136119</v>
+        <v>0.117908</v>
       </c>
       <c r="O14">
-        <v>0.4047526830301316</v>
+        <v>0.0002899299635503584</v>
       </c>
       <c r="P14">
-        <v>0.4047526830301316</v>
+        <v>0.0002899299635503584</v>
       </c>
       <c r="Q14">
-        <v>9408.491234789246</v>
+        <v>5.638192292183111</v>
       </c>
       <c r="R14">
-        <v>9408.491234789246</v>
+        <v>50.743730629648</v>
       </c>
       <c r="S14">
-        <v>0.1203881638976064</v>
+        <v>5.871337515742812E-05</v>
       </c>
       <c r="T14">
-        <v>0.1203881638976064</v>
+        <v>5.871337515742812E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>194.159493575321</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H15">
-        <v>194.159493575321</v>
+        <v>430.367156</v>
       </c>
       <c r="I15">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J15">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>61.1483113516776</v>
+        <v>60.87605266666667</v>
       </c>
       <c r="N15">
-        <v>61.1483113516776</v>
+        <v>182.628158</v>
       </c>
       <c r="O15">
-        <v>0.510755262981907</v>
+        <v>0.4490736437918471</v>
       </c>
       <c r="P15">
-        <v>0.510755262981907</v>
+        <v>0.4490736437918471</v>
       </c>
       <c r="Q15">
-        <v>11872.52516502778</v>
+        <v>8733.017884886516</v>
       </c>
       <c r="R15">
-        <v>11872.52516502778</v>
+        <v>78597.16096397865</v>
       </c>
       <c r="S15">
-        <v>0.1519171852082655</v>
+        <v>0.09094137424910996</v>
       </c>
       <c r="T15">
-        <v>0.1519171852082655</v>
+        <v>0.09094137424910996</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>194.159493575321</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H16">
-        <v>194.159493575321</v>
+        <v>430.367156</v>
       </c>
       <c r="I16">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J16">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.1155030568557</v>
+        <v>63.712864</v>
       </c>
       <c r="N16">
-        <v>10.1155030568557</v>
+        <v>191.138592</v>
       </c>
       <c r="O16">
-        <v>0.08449205398796139</v>
+        <v>0.470000381752102</v>
       </c>
       <c r="P16">
-        <v>0.08449205398796139</v>
+        <v>0.470000381752102</v>
       </c>
       <c r="Q16">
-        <v>1964.020950778714</v>
+        <v>9139.974693431594</v>
       </c>
       <c r="R16">
-        <v>1964.020950778714</v>
+        <v>82259.77224088435</v>
       </c>
       <c r="S16">
-        <v>0.02513100881110372</v>
+        <v>0.09517922328560055</v>
       </c>
       <c r="T16">
-        <v>0.02513100881110372</v>
+        <v>0.09517922328560055</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>42.1054306722281</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H17">
-        <v>42.1054306722281</v>
+        <v>430.367156</v>
       </c>
       <c r="I17">
-        <v>0.06450205301351841</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J17">
-        <v>0.06450205301351841</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>48.4575390136119</v>
+        <v>10.93095566666667</v>
       </c>
       <c r="N17">
-        <v>48.4575390136119</v>
+        <v>32.792867</v>
       </c>
       <c r="O17">
-        <v>0.4047526830301316</v>
+        <v>0.08063604449250054</v>
       </c>
       <c r="P17">
-        <v>0.4047526830301316</v>
+        <v>0.08063604449250053</v>
       </c>
       <c r="Q17">
-        <v>2040.325549484424</v>
+        <v>1568.108100875139</v>
       </c>
       <c r="R17">
-        <v>2040.325549484424</v>
+        <v>14112.97290787625</v>
       </c>
       <c r="S17">
-        <v>0.02610737901817337</v>
+        <v>0.01632951031871158</v>
       </c>
       <c r="T17">
-        <v>0.02610737901817337</v>
+        <v>0.01632951031871157</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>42.1054306722281</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H18">
-        <v>42.1054306722281</v>
+        <v>595.794632</v>
       </c>
       <c r="I18">
-        <v>0.06450205301351841</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J18">
-        <v>0.06450205301351841</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>61.1483113516776</v>
+        <v>0.03930266666666667</v>
       </c>
       <c r="N18">
-        <v>61.1483113516776</v>
+        <v>0.117908</v>
       </c>
       <c r="O18">
-        <v>0.510755262981907</v>
+        <v>0.0002899299635503584</v>
       </c>
       <c r="P18">
-        <v>0.510755262981907</v>
+        <v>0.0002899299635503584</v>
       </c>
       <c r="Q18">
-        <v>2574.67598434188</v>
+        <v>7.805439274428444</v>
       </c>
       <c r="R18">
-        <v>2574.67598434188</v>
+        <v>70.24895346985599</v>
       </c>
       <c r="S18">
-        <v>0.03294476304979251</v>
+        <v>8.128202456369098E-05</v>
       </c>
       <c r="T18">
-        <v>0.03294476304979251</v>
+        <v>8.128202456369098E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H19">
+        <v>595.794632</v>
+      </c>
+      <c r="I19">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J19">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>60.87605266666667</v>
+      </c>
+      <c r="N19">
+        <v>182.628158</v>
+      </c>
+      <c r="O19">
+        <v>0.4490736437918471</v>
+      </c>
+      <c r="P19">
+        <v>0.4490736437918471</v>
+      </c>
+      <c r="Q19">
+        <v>12089.87513204976</v>
+      </c>
+      <c r="R19">
+        <v>108808.8761884479</v>
+      </c>
+      <c r="S19">
+        <v>0.1258980427500902</v>
+      </c>
+      <c r="T19">
+        <v>0.1258980427500902</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H20">
+        <v>595.794632</v>
+      </c>
+      <c r="I20">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J20">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>63.712864</v>
+      </c>
+      <c r="N20">
+        <v>191.138592</v>
+      </c>
+      <c r="O20">
+        <v>0.470000381752102</v>
+      </c>
+      <c r="P20">
+        <v>0.470000381752102</v>
+      </c>
+      <c r="Q20">
+        <v>12653.26078684868</v>
+      </c>
+      <c r="R20">
+        <v>113879.3470816381</v>
+      </c>
+      <c r="S20">
+        <v>0.1317648652340241</v>
+      </c>
+      <c r="T20">
+        <v>0.1317648652340241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H21">
+        <v>595.794632</v>
+      </c>
+      <c r="I21">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J21">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>10.93095566666667</v>
+      </c>
+      <c r="N21">
+        <v>32.792867</v>
+      </c>
+      <c r="O21">
+        <v>0.08063604449250054</v>
+      </c>
+      <c r="P21">
+        <v>0.08063604449250053</v>
+      </c>
+      <c r="Q21">
+        <v>2170.86823627666</v>
+      </c>
+      <c r="R21">
+        <v>19537.81412648994</v>
+      </c>
+      <c r="S21">
+        <v>0.02260635937347637</v>
+      </c>
+      <c r="T21">
+        <v>0.02260635937347637</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H22">
+        <v>136.651993</v>
+      </c>
+      <c r="I22">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J22">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.03930266666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.117908</v>
+      </c>
+      <c r="O22">
+        <v>0.0002899299635503584</v>
+      </c>
+      <c r="P22">
+        <v>0.0002899299635503584</v>
+      </c>
+      <c r="Q22">
+        <v>1.790262576738222</v>
+      </c>
+      <c r="R22">
+        <v>16.112363190644</v>
+      </c>
+      <c r="S22">
+        <v>1.864291830629204E-05</v>
+      </c>
+      <c r="T22">
+        <v>1.864291830629204E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H23">
+        <v>136.651993</v>
+      </c>
+      <c r="I23">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J23">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>60.87605266666667</v>
+      </c>
+      <c r="N23">
+        <v>182.628158</v>
+      </c>
+      <c r="O23">
+        <v>0.4490736437918471</v>
+      </c>
+      <c r="P23">
+        <v>0.4490736437918471</v>
+      </c>
+      <c r="Q23">
+        <v>2772.944640957655</v>
+      </c>
+      <c r="R23">
+        <v>24956.50176861889</v>
+      </c>
+      <c r="S23">
+        <v>0.02887608839114051</v>
+      </c>
+      <c r="T23">
+        <v>0.02887608839114051</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H24">
+        <v>136.651993</v>
+      </c>
+      <c r="I24">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J24">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>63.712864</v>
+      </c>
+      <c r="N24">
+        <v>191.138592</v>
+      </c>
+      <c r="O24">
+        <v>0.470000381752102</v>
+      </c>
+      <c r="P24">
+        <v>0.470000381752102</v>
+      </c>
+      <c r="Q24">
+        <v>2902.163281779318</v>
+      </c>
+      <c r="R24">
+        <v>26119.46953601386</v>
+      </c>
+      <c r="S24">
+        <v>0.03022170807609055</v>
+      </c>
+      <c r="T24">
+        <v>0.03022170807609055</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>42.1054306722281</v>
-      </c>
-      <c r="H19">
-        <v>42.1054306722281</v>
-      </c>
-      <c r="I19">
-        <v>0.06450205301351841</v>
-      </c>
-      <c r="J19">
-        <v>0.06450205301351841</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>10.1155030568557</v>
-      </c>
-      <c r="N19">
-        <v>10.1155030568557</v>
-      </c>
-      <c r="O19">
-        <v>0.08449205398796139</v>
-      </c>
-      <c r="P19">
-        <v>0.08449205398796139</v>
-      </c>
-      <c r="Q19">
-        <v>425.9176126751491</v>
-      </c>
-      <c r="R19">
-        <v>425.9176126751491</v>
-      </c>
-      <c r="S19">
-        <v>0.005449910945552546</v>
-      </c>
-      <c r="T19">
-        <v>0.005449910945552546</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H25">
+        <v>136.651993</v>
+      </c>
+      <c r="I25">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J25">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>10.93095566666667</v>
+      </c>
+      <c r="N25">
+        <v>32.792867</v>
+      </c>
+      <c r="O25">
+        <v>0.08063604449250054</v>
+      </c>
+      <c r="P25">
+        <v>0.08063604449250053</v>
+      </c>
+      <c r="Q25">
+        <v>497.9122924148813</v>
+      </c>
+      <c r="R25">
+        <v>4481.210631733931</v>
+      </c>
+      <c r="S25">
+        <v>0.00518501493121841</v>
+      </c>
+      <c r="T25">
+        <v>0.005185014931218409</v>
       </c>
     </row>
   </sheetData>
